--- a/Sessions/ABC/ABCparameters.xlsx
+++ b/Sessions/ABC/ABCparameters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,6 +95,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -143,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,7 +181,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,7 +393,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sessions/ABC/ABCparameters.xlsx
+++ b/Sessions/ABC/ABCparameters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Include</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>k2</t>
-  </si>
-  <si>
-    <t>k3</t>
   </si>
   <si>
     <t>log</t>
@@ -390,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +412,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -426,7 +423,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0.1</v>
@@ -446,7 +443,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>0.1</v>
@@ -456,26 +453,6 @@
       </c>
       <c r="F3">
         <v>2.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.12</v>
-      </c>
-      <c r="F4">
-        <v>0.11</v>
       </c>
     </row>
   </sheetData>
